--- a/uniStrategyOrdersExplained.xlsx
+++ b/uniStrategyOrdersExplained.xlsx
@@ -8,15 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Documents\bridge-defi-website-official\UniStrategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFC35F4-A112-4BCD-B82F-66FE89118DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675187F6-FBA5-44A5-882C-1B89D6DAA79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15930" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="example1" sheetId="1" r:id="rId1"/>
+    <sheet name="swap" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t xml:space="preserve"> tickFloor - _baseThreshold</t>
   </si>
@@ -118,19 +128,126 @@
   </si>
   <si>
     <t>same struct, different</t>
+  </si>
+  <si>
+    <t>Swap logic</t>
+  </si>
+  <si>
+    <t>Initial case</t>
+  </si>
+  <si>
+    <t>case 1</t>
+  </si>
+  <si>
+    <t>Price moves within the rage</t>
+  </si>
+  <si>
+    <t>case 2</t>
+  </si>
+  <si>
+    <t>rebalance</t>
+  </si>
+  <si>
+    <t>liquidity in eccess allocated to limit order, which increases</t>
+  </si>
+  <si>
+    <t>limit order</t>
+  </si>
+  <si>
+    <t>base order</t>
+  </si>
+  <si>
+    <t>usdt in order</t>
+  </si>
+  <si>
+    <t>eth in order</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>base order redeployed</t>
+  </si>
+  <si>
+    <t>eth price</t>
+  </si>
+  <si>
+    <t>usdt</t>
+  </si>
+  <si>
+    <t>deposited in the vault</t>
+  </si>
+  <si>
+    <t>scenario eth increase</t>
+  </si>
+  <si>
+    <t>Starting case</t>
+  </si>
+  <si>
+    <t>scenario eth decreases</t>
+  </si>
+  <si>
+    <t>Pre rebalance</t>
+  </si>
+  <si>
+    <t>Post rebalance</t>
+  </si>
+  <si>
+    <t>excess USDC</t>
+  </si>
+  <si>
+    <t>excess ETH</t>
+  </si>
+  <si>
+    <t>eth (usd) in order</t>
+  </si>
+  <si>
+    <t>ask order</t>
+  </si>
+  <si>
+    <t>In the code:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> total liquidity</t>
+  </si>
+  <si>
+    <t>position value</t>
+  </si>
+  <si>
+    <t>ASK</t>
+  </si>
+  <si>
+    <t>Value in vault</t>
+  </si>
+  <si>
+    <t>assuming linear y = k - x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -164,8 +281,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +328,44 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,47 +388,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3800050E-E8A3-47DA-BDCB-161C1F1DAC9F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -870,6 +1091,500 @@
           <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>90713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEE9309-23D0-4ED7-819A-B9E812888FCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="9261928"/>
+          <a:ext cx="8436429" cy="4925785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> // Withdraw all current liquidity from Uniswap pool</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            (uint128 baseLiquidity, , , , ) = _position(baseLower, baseUpper);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            (uint128 limitLiquidity, , , , ) = _position(limitLower, limitUpper);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            _burnAndCollect(baseLower, baseUpper, baseLiquidity);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            _burnAndCollect(limitLower, limitUpper, limitLiquidity);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>[...]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// Place base order on Uniswap</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        uint128 liquidity = _liquidityForAmounts(_baseLower, _baseUpper, balance0, balance1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        _mintLiquidity(_baseLower, _baseUpper, liquidity);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        (baseLower, baseUpper) = (_baseLower, _baseUpper);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        balance0 = getBalance0();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        balance1 = getBalance1();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// Place bid or ask order on Uniswap depending on which token is left</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        uint128 bidLiquidity = _liquidityForAmounts(_bidLower, _bidUpper, balance0, balance1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        uint128 askLiquidity = _liquidityForAmounts(_askLower, _askUpper, balance0, balance1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if (bidLiquidity &gt; askLiquidity) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            _mintLiquidity(_bidLower, _bidUpper, bidLiquidity);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            (limitLower, limitUpper) = (_bidLower, _bidUpper);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        } else {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            _mintLiquidity(_askLower, _askUpper, askLiquidity);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            (limitLower, limitUpper) = (_askLower, _askUpper);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1175,29 +1890,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F2:AL32"/>
+  <dimension ref="A2:AL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" customWidth="1"/>
-    <col min="11" max="11" width="23.36328125" customWidth="1"/>
-    <col min="12" max="12" width="22.90625" customWidth="1"/>
-    <col min="13" max="13" width="25.26953125" customWidth="1"/>
-    <col min="14" max="14" width="24.36328125" customWidth="1"/>
-    <col min="15" max="15" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="6:38" x14ac:dyDescent="0.25">
       <c r="U2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="6:38" x14ac:dyDescent="0.25">
       <c r="AG3">
         <v>12000</v>
       </c>
@@ -1205,7 +1920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="6:38" x14ac:dyDescent="0.25">
       <c r="H4" s="1">
         <v>100</v>
       </c>
@@ -1288,7 +2003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:38" x14ac:dyDescent="0.25">
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1325,7 +2040,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="6:38" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
       <c r="K6" s="5"/>
       <c r="L6" s="6" t="s">
@@ -1345,7 +2060,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="7" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="6:38" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1368,19 +2083,19 @@
       </c>
       <c r="AI7" s="14"/>
     </row>
-    <row r="8" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="U10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>5</v>
@@ -1389,7 +2104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>7</v>
@@ -1440,7 +2155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -1477,7 +2192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="6:38" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +2211,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="13"/>
@@ -1508,7 +2223,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="6:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="AG16" s="14">
         <v>2000</v>
@@ -1518,13 +2233,13 @@
       </c>
       <c r="AI16" s="14"/>
     </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1537,7 +2252,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G20" s="1">
         <v>100</v>
       </c>
@@ -1572,7 +2287,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1591,7 +2306,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1608,7 +2323,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>16</v>
       </c>
@@ -1616,24 +2331,241 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="1">
+        <v>100</v>
+      </c>
+      <c r="H39" s="1">
+        <v>110</v>
+      </c>
+      <c r="I39" s="1">
+        <v>120</v>
+      </c>
+      <c r="J39" s="1">
+        <v>130</v>
+      </c>
+      <c r="K39" s="1">
+        <v>140</v>
+      </c>
+      <c r="L39" s="1">
+        <v>150</v>
+      </c>
+      <c r="M39" s="1">
+        <v>160</v>
+      </c>
+      <c r="N39" s="1">
+        <v>170</v>
+      </c>
+      <c r="O39" s="1">
+        <v>180</v>
+      </c>
+      <c r="P39" s="1">
+        <v>190</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="1">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1">
+        <v>110</v>
+      </c>
+      <c r="I44" s="1">
+        <v>120</v>
+      </c>
+      <c r="J44" s="1">
+        <v>130</v>
+      </c>
+      <c r="K44" s="1">
+        <v>140</v>
+      </c>
+      <c r="L44" s="1">
+        <v>150</v>
+      </c>
+      <c r="M44" s="1">
+        <v>160</v>
+      </c>
+      <c r="N44" s="1">
+        <v>170</v>
+      </c>
+      <c r="O44" s="1">
+        <v>180</v>
+      </c>
+      <c r="P44" s="1">
+        <v>190</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G48" s="11">
+        <v>100</v>
+      </c>
+      <c r="H48" s="11">
+        <v>110</v>
+      </c>
+      <c r="I48" s="11">
+        <v>120</v>
+      </c>
+      <c r="J48" s="11">
+        <v>130</v>
+      </c>
+      <c r="K48" s="11">
+        <v>140</v>
+      </c>
+      <c r="L48" s="11">
+        <v>150</v>
+      </c>
+      <c r="M48" s="11">
+        <v>160</v>
+      </c>
+      <c r="N48" s="11">
+        <v>170</v>
+      </c>
+      <c r="O48" s="11">
+        <v>180</v>
+      </c>
+      <c r="P48" s="11">
+        <v>190</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1648,4 +2580,1322 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5759581B-5278-4FFE-9889-03894BC8AC7F}">
+  <dimension ref="A1:AC50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="105" workbookViewId="0">
+      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="21"/>
+    <col min="6" max="6" width="13.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="21"/>
+    <col min="12" max="12" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" style="21"/>
+    <col min="17" max="17" width="12" style="21" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="21">
+        <v>2500</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>3000</v>
+      </c>
+      <c r="H3" s="21">
+        <f>F3*C2+G3</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="38">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="38">
+        <v>1</v>
+      </c>
+      <c r="G6" s="38">
+        <f>F6*C2</f>
+        <v>2500</v>
+      </c>
+      <c r="H6" s="38">
+        <v>2500</v>
+      </c>
+      <c r="I6" s="38">
+        <v>500</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>1700</v>
+      </c>
+      <c r="M6" s="21">
+        <f>L6+100</f>
+        <v>1800</v>
+      </c>
+      <c r="N6" s="21">
+        <f>M6+100</f>
+        <v>1900</v>
+      </c>
+      <c r="O6" s="21">
+        <v>2000</v>
+      </c>
+      <c r="P6" s="21">
+        <f>O6+100</f>
+        <v>2100</v>
+      </c>
+      <c r="Q6" s="21">
+        <f>P6+100</f>
+        <v>2200</v>
+      </c>
+      <c r="R6" s="21">
+        <f>Q6+100</f>
+        <v>2300</v>
+      </c>
+      <c r="S6" s="21">
+        <f>R6+100</f>
+        <v>2400</v>
+      </c>
+      <c r="T6" s="21">
+        <f>S6+100</f>
+        <v>2500</v>
+      </c>
+      <c r="U6" s="21">
+        <f>T6+100</f>
+        <v>2600</v>
+      </c>
+      <c r="V6" s="21">
+        <f>U6+100</f>
+        <v>2700</v>
+      </c>
+      <c r="W6" s="21">
+        <f>V6+100</f>
+        <v>2800</v>
+      </c>
+      <c r="X6" s="21">
+        <f>W6+100</f>
+        <v>2900</v>
+      </c>
+      <c r="Y6" s="21">
+        <f>X6+100</f>
+        <v>3000</v>
+      </c>
+      <c r="Z6" s="21">
+        <f>Y6+100</f>
+        <v>3100</v>
+      </c>
+      <c r="AA6" s="21">
+        <f>Z6+100</f>
+        <v>3200</v>
+      </c>
+      <c r="AB6" s="21">
+        <f>AA6+100</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="38">
+        <v>2200</v>
+      </c>
+      <c r="D7" s="38">
+        <v>2500</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <v>500</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="T7" s="24"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="F9" s="40">
+        <f>SUM(F6:F8)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="40">
+        <f t="shared" ref="G9" si="0">SUM(G6:G8)</f>
+        <v>2500</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" ref="H9" si="1">SUM(H6:H8)</f>
+        <v>3000</v>
+      </c>
+      <c r="I9" s="40">
+        <f t="shared" ref="I9" si="2">SUM(I6:I8)</f>
+        <v>500</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" ref="J9" si="3">SUM(J6:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="40">
+        <f>SUM(G9:H9)</f>
+        <v>5500</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+    </row>
+    <row r="13" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="32">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="32">
+        <v>1700</v>
+      </c>
+      <c r="M16" s="32">
+        <f>L16+100</f>
+        <v>1800</v>
+      </c>
+      <c r="N16" s="32">
+        <f>M16+100</f>
+        <v>1900</v>
+      </c>
+      <c r="O16" s="32">
+        <v>2000</v>
+      </c>
+      <c r="P16" s="32">
+        <f>O16+100</f>
+        <v>2100</v>
+      </c>
+      <c r="Q16" s="32">
+        <f>P16+100</f>
+        <v>2200</v>
+      </c>
+      <c r="R16" s="32">
+        <f>Q16+100</f>
+        <v>2300</v>
+      </c>
+      <c r="S16" s="32">
+        <f>R16+100</f>
+        <v>2400</v>
+      </c>
+      <c r="T16" s="32">
+        <f>S16+100</f>
+        <v>2500</v>
+      </c>
+      <c r="U16" s="32">
+        <f>T16+100</f>
+        <v>2600</v>
+      </c>
+      <c r="V16" s="32">
+        <f>U16+100</f>
+        <v>2700</v>
+      </c>
+      <c r="W16" s="32">
+        <f>V16+100</f>
+        <v>2800</v>
+      </c>
+      <c r="X16" s="32">
+        <f>W16+100</f>
+        <v>2900</v>
+      </c>
+      <c r="Y16" s="32">
+        <f>X16+100</f>
+        <v>3000</v>
+      </c>
+      <c r="Z16" s="32">
+        <f>Y16+100</f>
+        <v>3100</v>
+      </c>
+      <c r="AA16" s="32">
+        <f>Z16+100</f>
+        <v>3200</v>
+      </c>
+      <c r="AB16" s="32">
+        <f>AA16+100</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>1</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="38">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="40">
+        <f>F6*(C2/C14)</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="G17" s="38">
+        <f>F17*C14</f>
+        <v>2500</v>
+      </c>
+      <c r="H17" s="38">
+        <f>H6*(C14/C2)</f>
+        <v>2800.0000000000005</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="W17" s="33"/>
+    </row>
+    <row r="18" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2200</v>
+      </c>
+      <c r="D18" s="38">
+        <v>2500</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38">
+        <f>H7</f>
+        <v>500</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+    </row>
+    <row r="19" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+    </row>
+    <row r="20" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="40">
+        <f>SUM(F17:F19)</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="G20" s="40">
+        <f t="shared" ref="G20" si="4">SUM(G17:G19)</f>
+        <v>2500</v>
+      </c>
+      <c r="H20" s="40">
+        <f t="shared" ref="H20" si="5">SUM(H17:H19)</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40">
+        <f t="shared" ref="J20" si="6">SUM(J17:J19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="40">
+        <f>SUM(G20:H20)</f>
+        <v>5800</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>2</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="32">
+        <v>1700</v>
+      </c>
+      <c r="M23" s="32">
+        <f>L23+100</f>
+        <v>1800</v>
+      </c>
+      <c r="N23" s="32">
+        <f>M23+100</f>
+        <v>1900</v>
+      </c>
+      <c r="O23" s="32">
+        <v>2000</v>
+      </c>
+      <c r="P23" s="32">
+        <f>O23+100</f>
+        <v>2100</v>
+      </c>
+      <c r="Q23" s="32">
+        <f>P23+100</f>
+        <v>2200</v>
+      </c>
+      <c r="R23" s="32">
+        <f>Q23+100</f>
+        <v>2300</v>
+      </c>
+      <c r="S23" s="32">
+        <f>R23+100</f>
+        <v>2400</v>
+      </c>
+      <c r="T23" s="32">
+        <f>S23+100</f>
+        <v>2500</v>
+      </c>
+      <c r="U23" s="32">
+        <f>T23+100</f>
+        <v>2600</v>
+      </c>
+      <c r="V23" s="32">
+        <f>U23+100</f>
+        <v>2700</v>
+      </c>
+      <c r="W23" s="32">
+        <f>V23+100</f>
+        <v>2800</v>
+      </c>
+      <c r="X23" s="32">
+        <f>W23+100</f>
+        <v>2900</v>
+      </c>
+      <c r="Y23" s="32">
+        <f>X23+100</f>
+        <v>3000</v>
+      </c>
+      <c r="Z23" s="32">
+        <f>Y23+100</f>
+        <v>3100</v>
+      </c>
+      <c r="AA23" s="32">
+        <f>Z23+100</f>
+        <v>3200</v>
+      </c>
+      <c r="AB23" s="32">
+        <f>AA23+100</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="38">
+        <v>2300</v>
+      </c>
+      <c r="D24" s="38">
+        <v>3300</v>
+      </c>
+      <c r="F24" s="40">
+        <f>G24/C14</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="G24" s="40">
+        <f>MIN($G20:$H20)</f>
+        <v>2500</v>
+      </c>
+      <c r="H24" s="40">
+        <f>MIN($G20:$H20)</f>
+        <v>2500</v>
+      </c>
+      <c r="I24" s="40">
+        <f>H20-H24</f>
+        <v>800.00000000000045</v>
+      </c>
+      <c r="J24" s="40">
+        <f>G20-G24</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="33"/>
+    </row>
+    <row r="25" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="38">
+        <v>2500</v>
+      </c>
+      <c r="D25" s="38">
+        <v>2800</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40">
+        <f>I24</f>
+        <v>800.00000000000045</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="36"/>
+    </row>
+    <row r="26" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+    </row>
+    <row r="27" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="39">
+        <f>SUM(F24:F26)</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="G27" s="45">
+        <f t="shared" ref="G27" si="7">SUM(G24:G26)</f>
+        <v>2500</v>
+      </c>
+      <c r="H27" s="45">
+        <f t="shared" ref="H27" si="8">SUM(H24:H26)</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="I27" s="45">
+        <f>SUM(I24:I26)</f>
+        <v>800.00000000000045</v>
+      </c>
+      <c r="J27" s="45">
+        <f t="shared" ref="J27" si="9">SUM(J24:J26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="40">
+        <f>SUM(G27:H27)</f>
+        <v>5800</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+    </row>
+    <row r="29" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="46"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+    </row>
+    <row r="31" spans="1:29" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="21">
+        <v>2200</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="T32" s="27"/>
+    </row>
+    <row r="33" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="21">
+        <v>1700</v>
+      </c>
+      <c r="M34" s="21">
+        <f>L34+100</f>
+        <v>1800</v>
+      </c>
+      <c r="N34" s="21">
+        <f>M34+100</f>
+        <v>1900</v>
+      </c>
+      <c r="O34" s="21">
+        <v>2000</v>
+      </c>
+      <c r="P34" s="21">
+        <f>O34+100</f>
+        <v>2100</v>
+      </c>
+      <c r="Q34" s="21">
+        <f>P34+100</f>
+        <v>2200</v>
+      </c>
+      <c r="R34" s="21">
+        <f>Q34+100</f>
+        <v>2300</v>
+      </c>
+      <c r="S34" s="21">
+        <f>R34+100</f>
+        <v>2400</v>
+      </c>
+      <c r="T34" s="21">
+        <f>S34+100</f>
+        <v>2500</v>
+      </c>
+      <c r="U34" s="21">
+        <f>T34+100</f>
+        <v>2600</v>
+      </c>
+      <c r="V34" s="21">
+        <f>U34+100</f>
+        <v>2700</v>
+      </c>
+      <c r="W34" s="21">
+        <f>V34+100</f>
+        <v>2800</v>
+      </c>
+      <c r="X34" s="21">
+        <f>W34+100</f>
+        <v>2900</v>
+      </c>
+      <c r="Y34" s="21">
+        <f>X34+100</f>
+        <v>3000</v>
+      </c>
+      <c r="Z34" s="21">
+        <f>Y34+100</f>
+        <v>3100</v>
+      </c>
+      <c r="AA34" s="21">
+        <f>Z34+100</f>
+        <v>3200</v>
+      </c>
+      <c r="AB34" s="21">
+        <f>AA34+100</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="38">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="38">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="40">
+        <f>F6*(C2/C32)</f>
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="G35" s="38">
+        <f>F35*C32</f>
+        <v>2500</v>
+      </c>
+      <c r="H35" s="38">
+        <f>H6*(C32/H6)</f>
+        <v>2200</v>
+      </c>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+    </row>
+    <row r="36" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="38">
+        <v>2200</v>
+      </c>
+      <c r="D36" s="38">
+        <v>2500</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="38">
+        <f>G36/C32</f>
+        <v>0.2</v>
+      </c>
+      <c r="G36" s="38">
+        <f>I6*(C32/C2)</f>
+        <v>440</v>
+      </c>
+      <c r="H36" s="38">
+        <v>60</v>
+      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+    </row>
+    <row r="37" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="38">
+        <f>J35</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+    </row>
+    <row r="38" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="40">
+        <f>SUM(F35:F37)</f>
+        <v>1.3363636363636364</v>
+      </c>
+      <c r="G38" s="40">
+        <f t="shared" ref="G38:J38" si="10">SUM(G35:G37)</f>
+        <v>2940</v>
+      </c>
+      <c r="H38" s="40">
+        <f t="shared" si="10"/>
+        <v>2260</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+    </row>
+    <row r="39" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="40">
+        <f>SUM(G38:H38)</f>
+        <v>5200</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+    </row>
+    <row r="40" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+    </row>
+    <row r="41" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="21">
+        <v>1700</v>
+      </c>
+      <c r="M41" s="21">
+        <f>L41+100</f>
+        <v>1800</v>
+      </c>
+      <c r="N41" s="21">
+        <f>M41+100</f>
+        <v>1900</v>
+      </c>
+      <c r="O41" s="21">
+        <v>2000</v>
+      </c>
+      <c r="P41" s="21">
+        <f>O41+100</f>
+        <v>2100</v>
+      </c>
+      <c r="Q41" s="21">
+        <f>P41+100</f>
+        <v>2200</v>
+      </c>
+      <c r="R41" s="21">
+        <f>Q41+100</f>
+        <v>2300</v>
+      </c>
+      <c r="S41" s="21">
+        <f>R41+100</f>
+        <v>2400</v>
+      </c>
+      <c r="T41" s="21">
+        <f>S41+100</f>
+        <v>2500</v>
+      </c>
+      <c r="U41" s="21">
+        <f>T41+100</f>
+        <v>2600</v>
+      </c>
+      <c r="V41" s="21">
+        <f>U41+100</f>
+        <v>2700</v>
+      </c>
+      <c r="W41" s="21">
+        <f>V41+100</f>
+        <v>2800</v>
+      </c>
+      <c r="X41" s="21">
+        <f>W41+100</f>
+        <v>2900</v>
+      </c>
+      <c r="Y41" s="21">
+        <f>X41+100</f>
+        <v>3000</v>
+      </c>
+      <c r="Z41" s="21">
+        <f>Y41+100</f>
+        <v>3100</v>
+      </c>
+      <c r="AA41" s="21">
+        <f>Z41+100</f>
+        <v>3200</v>
+      </c>
+      <c r="AB41" s="21">
+        <f>AA41+100</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="38">
+        <v>1700</v>
+      </c>
+      <c r="D42" s="38">
+        <v>2700</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="44">
+        <f>G42/C32</f>
+        <v>1.0272727272727273</v>
+      </c>
+      <c r="G42" s="40">
+        <f>MIN($G38:$H38)</f>
+        <v>2260</v>
+      </c>
+      <c r="H42" s="40">
+        <f>MIN($G38:$H38)</f>
+        <v>2260</v>
+      </c>
+      <c r="I42" s="40">
+        <f>H38-H42</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="40">
+        <f>G38-G42</f>
+        <v>680</v>
+      </c>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="24"/>
+    </row>
+    <row r="43" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="38">
+        <v>2500</v>
+      </c>
+      <c r="D43" s="38">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38">
+        <f>I42</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="32"/>
+      <c r="J43" s="38"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+    </row>
+    <row r="44" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="F44" s="42">
+        <f>G44/C32</f>
+        <v>0.30909090909090908</v>
+      </c>
+      <c r="G44" s="42">
+        <f>MAX(G38-G42,0)</f>
+        <v>680</v>
+      </c>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="42"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="R44" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+    </row>
+    <row r="45" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="39">
+        <f>SUM(F42:F44)</f>
+        <v>1.3363636363636364</v>
+      </c>
+      <c r="G45" s="45">
+        <f t="shared" ref="G45" si="11">SUM(G42:G44)</f>
+        <v>2940</v>
+      </c>
+      <c r="H45" s="45">
+        <f t="shared" ref="H45" si="12">SUM(H42:H44)</f>
+        <v>2260</v>
+      </c>
+      <c r="I45" s="45">
+        <f>SUM(I42:I44)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="45">
+        <f t="shared" ref="J45" si="13">SUM(J42:J44)</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="40">
+        <f>SUM(G45:H45)</f>
+        <v>5200</v>
+      </c>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+    </row>
+    <row r="47" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/uniStrategyOrdersExplained.xlsx
+++ b/uniStrategyOrdersExplained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Documents\bridge-defi-website-official\UniStrategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675187F6-FBA5-44A5-882C-1B89D6DAA79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5A4699-045E-4C6E-B67A-5A752BD53F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,8 +231,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -469,13 +469,13 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1892,7 +1892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AL55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -2586,9 +2586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5759581B-5278-4FFE-9889-03894BC8AC7F}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,55 +2725,55 @@
         <v>2000</v>
       </c>
       <c r="P6" s="21">
-        <f>O6+100</f>
+        <f t="shared" ref="P6:AB6" si="0">O6+100</f>
         <v>2100</v>
       </c>
       <c r="Q6" s="21">
-        <f>P6+100</f>
+        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
       <c r="R6" s="21">
-        <f>Q6+100</f>
+        <f t="shared" si="0"/>
         <v>2300</v>
       </c>
       <c r="S6" s="21">
-        <f>R6+100</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="T6" s="21">
-        <f>S6+100</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="U6" s="21">
-        <f>T6+100</f>
+        <f t="shared" si="0"/>
         <v>2600</v>
       </c>
       <c r="V6" s="21">
-        <f>U6+100</f>
+        <f t="shared" si="0"/>
         <v>2700</v>
       </c>
       <c r="W6" s="21">
-        <f>V6+100</f>
+        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
       <c r="X6" s="21">
-        <f>W6+100</f>
+        <f t="shared" si="0"/>
         <v>2900</v>
       </c>
       <c r="Y6" s="21">
-        <f>X6+100</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="Z6" s="21">
-        <f>Y6+100</f>
+        <f t="shared" si="0"/>
         <v>3100</v>
       </c>
       <c r="AA6" s="21">
-        <f>Z6+100</f>
+        <f t="shared" si="0"/>
         <v>3200</v>
       </c>
       <c r="AB6" s="21">
-        <f>AA6+100</f>
+        <f t="shared" si="0"/>
         <v>3300</v>
       </c>
     </row>
@@ -2832,19 +2832,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="40">
-        <f t="shared" ref="G9" si="0">SUM(G6:G8)</f>
+        <f t="shared" ref="G9" si="1">SUM(G6:G8)</f>
         <v>2500</v>
       </c>
       <c r="H9" s="40">
-        <f t="shared" ref="H9" si="1">SUM(H6:H8)</f>
+        <f t="shared" ref="H9" si="2">SUM(H6:H8)</f>
         <v>3000</v>
       </c>
       <c r="I9" s="40">
-        <f t="shared" ref="I9" si="2">SUM(I6:I8)</f>
+        <f t="shared" ref="I9" si="3">SUM(I6:I8)</f>
         <v>500</v>
       </c>
       <c r="J9" s="40">
-        <f t="shared" ref="J9" si="3">SUM(J6:J8)</f>
+        <f t="shared" ref="J9" si="4">SUM(J6:J8)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="22"/>
@@ -2928,55 +2928,55 @@
         <v>2000</v>
       </c>
       <c r="P16" s="32">
-        <f>O16+100</f>
+        <f t="shared" ref="P16:AB16" si="5">O16+100</f>
         <v>2100</v>
       </c>
       <c r="Q16" s="32">
-        <f>P16+100</f>
+        <f t="shared" si="5"/>
         <v>2200</v>
       </c>
       <c r="R16" s="32">
-        <f>Q16+100</f>
+        <f t="shared" si="5"/>
         <v>2300</v>
       </c>
       <c r="S16" s="32">
-        <f>R16+100</f>
+        <f t="shared" si="5"/>
         <v>2400</v>
       </c>
       <c r="T16" s="32">
-        <f>S16+100</f>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
       <c r="U16" s="32">
-        <f>T16+100</f>
+        <f t="shared" si="5"/>
         <v>2600</v>
       </c>
       <c r="V16" s="32">
-        <f>U16+100</f>
+        <f t="shared" si="5"/>
         <v>2700</v>
       </c>
       <c r="W16" s="32">
-        <f>V16+100</f>
+        <f t="shared" si="5"/>
         <v>2800</v>
       </c>
       <c r="X16" s="32">
-        <f>W16+100</f>
+        <f t="shared" si="5"/>
         <v>2900</v>
       </c>
       <c r="Y16" s="32">
-        <f>X16+100</f>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="Z16" s="32">
-        <f>Y16+100</f>
+        <f t="shared" si="5"/>
         <v>3100</v>
       </c>
       <c r="AA16" s="32">
-        <f>Z16+100</f>
+        <f t="shared" si="5"/>
         <v>3200</v>
       </c>
       <c r="AB16" s="32">
-        <f>AA16+100</f>
+        <f t="shared" si="5"/>
         <v>3300</v>
       </c>
     </row>
@@ -3066,16 +3066,16 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="G20" s="40">
-        <f t="shared" ref="G20" si="4">SUM(G17:G19)</f>
+        <f t="shared" ref="G20" si="6">SUM(G17:G19)</f>
         <v>2500</v>
       </c>
       <c r="H20" s="40">
-        <f t="shared" ref="H20" si="5">SUM(H17:H19)</f>
+        <f t="shared" ref="H20" si="7">SUM(H17:H19)</f>
         <v>3300.0000000000005</v>
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="40">
-        <f t="shared" ref="J20" si="6">SUM(J17:J19)</f>
+        <f t="shared" ref="J20" si="8">SUM(J17:J19)</f>
         <v>0</v>
       </c>
     </row>
@@ -3139,55 +3139,55 @@
         <v>2000</v>
       </c>
       <c r="P23" s="32">
-        <f>O23+100</f>
+        <f t="shared" ref="P23:AB23" si="9">O23+100</f>
         <v>2100</v>
       </c>
       <c r="Q23" s="32">
-        <f>P23+100</f>
+        <f t="shared" si="9"/>
         <v>2200</v>
       </c>
       <c r="R23" s="32">
-        <f>Q23+100</f>
+        <f t="shared" si="9"/>
         <v>2300</v>
       </c>
       <c r="S23" s="32">
-        <f>R23+100</f>
+        <f t="shared" si="9"/>
         <v>2400</v>
       </c>
       <c r="T23" s="32">
-        <f>S23+100</f>
+        <f t="shared" si="9"/>
         <v>2500</v>
       </c>
       <c r="U23" s="32">
-        <f>T23+100</f>
+        <f t="shared" si="9"/>
         <v>2600</v>
       </c>
       <c r="V23" s="32">
-        <f>U23+100</f>
+        <f t="shared" si="9"/>
         <v>2700</v>
       </c>
       <c r="W23" s="32">
-        <f>V23+100</f>
+        <f t="shared" si="9"/>
         <v>2800</v>
       </c>
       <c r="X23" s="32">
-        <f>W23+100</f>
+        <f t="shared" si="9"/>
         <v>2900</v>
       </c>
       <c r="Y23" s="32">
-        <f>X23+100</f>
+        <f t="shared" si="9"/>
         <v>3000</v>
       </c>
       <c r="Z23" s="32">
-        <f>Y23+100</f>
+        <f t="shared" si="9"/>
         <v>3100</v>
       </c>
       <c r="AA23" s="32">
-        <f>Z23+100</f>
+        <f t="shared" si="9"/>
         <v>3200</v>
       </c>
       <c r="AB23" s="32">
-        <f>AA23+100</f>
+        <f t="shared" si="9"/>
         <v>3300</v>
       </c>
     </row>
@@ -3280,11 +3280,11 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="G27" s="45">
-        <f t="shared" ref="G27" si="7">SUM(G24:G26)</f>
+        <f t="shared" ref="G27" si="10">SUM(G24:G26)</f>
         <v>2500</v>
       </c>
       <c r="H27" s="45">
-        <f t="shared" ref="H27" si="8">SUM(H24:H26)</f>
+        <f t="shared" ref="H27" si="11">SUM(H24:H26)</f>
         <v>3300.0000000000005</v>
       </c>
       <c r="I27" s="45">
@@ -3292,7 +3292,7 @@
         <v>800.00000000000045</v>
       </c>
       <c r="J27" s="45">
-        <f t="shared" ref="J27" si="9">SUM(J24:J26)</f>
+        <f t="shared" ref="J27" si="12">SUM(J24:J26)</f>
         <v>0</v>
       </c>
     </row>
@@ -3406,55 +3406,55 @@
         <v>2000</v>
       </c>
       <c r="P34" s="21">
-        <f>O34+100</f>
+        <f t="shared" ref="P34:AB34" si="13">O34+100</f>
         <v>2100</v>
       </c>
       <c r="Q34" s="21">
-        <f>P34+100</f>
+        <f t="shared" si="13"/>
         <v>2200</v>
       </c>
       <c r="R34" s="21">
-        <f>Q34+100</f>
+        <f t="shared" si="13"/>
         <v>2300</v>
       </c>
       <c r="S34" s="21">
-        <f>R34+100</f>
+        <f t="shared" si="13"/>
         <v>2400</v>
       </c>
       <c r="T34" s="21">
-        <f>S34+100</f>
+        <f t="shared" si="13"/>
         <v>2500</v>
       </c>
       <c r="U34" s="21">
-        <f>T34+100</f>
+        <f t="shared" si="13"/>
         <v>2600</v>
       </c>
       <c r="V34" s="21">
-        <f>U34+100</f>
+        <f t="shared" si="13"/>
         <v>2700</v>
       </c>
       <c r="W34" s="21">
-        <f>V34+100</f>
+        <f t="shared" si="13"/>
         <v>2800</v>
       </c>
       <c r="X34" s="21">
-        <f>W34+100</f>
+        <f t="shared" si="13"/>
         <v>2900</v>
       </c>
       <c r="Y34" s="21">
-        <f>X34+100</f>
+        <f t="shared" si="13"/>
         <v>3000</v>
       </c>
       <c r="Z34" s="21">
-        <f>Y34+100</f>
+        <f t="shared" si="13"/>
         <v>3100</v>
       </c>
       <c r="AA34" s="21">
-        <f>Z34+100</f>
+        <f t="shared" si="13"/>
         <v>3200</v>
       </c>
       <c r="AB34" s="21">
-        <f>AA34+100</f>
+        <f t="shared" si="13"/>
         <v>3300</v>
       </c>
     </row>
@@ -3578,11 +3578,11 @@
         <v>1.3363636363636364</v>
       </c>
       <c r="G38" s="40">
-        <f t="shared" ref="G38:J38" si="10">SUM(G35:G37)</f>
+        <f t="shared" ref="G38:H38" si="14">SUM(G35:G37)</f>
         <v>2940</v>
       </c>
       <c r="H38" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2260</v>
       </c>
       <c r="I38" s="40"/>
@@ -3698,55 +3698,55 @@
         <v>2000</v>
       </c>
       <c r="P41" s="21">
-        <f>O41+100</f>
+        <f t="shared" ref="P41:AB41" si="15">O41+100</f>
         <v>2100</v>
       </c>
       <c r="Q41" s="21">
-        <f>P41+100</f>
+        <f t="shared" si="15"/>
         <v>2200</v>
       </c>
       <c r="R41" s="21">
-        <f>Q41+100</f>
+        <f t="shared" si="15"/>
         <v>2300</v>
       </c>
       <c r="S41" s="21">
-        <f>R41+100</f>
+        <f t="shared" si="15"/>
         <v>2400</v>
       </c>
       <c r="T41" s="21">
-        <f>S41+100</f>
+        <f t="shared" si="15"/>
         <v>2500</v>
       </c>
       <c r="U41" s="21">
-        <f>T41+100</f>
+        <f t="shared" si="15"/>
         <v>2600</v>
       </c>
       <c r="V41" s="21">
-        <f>U41+100</f>
+        <f t="shared" si="15"/>
         <v>2700</v>
       </c>
       <c r="W41" s="21">
-        <f>V41+100</f>
+        <f t="shared" si="15"/>
         <v>2800</v>
       </c>
       <c r="X41" s="21">
-        <f>W41+100</f>
+        <f t="shared" si="15"/>
         <v>2900</v>
       </c>
       <c r="Y41" s="21">
-        <f>X41+100</f>
+        <f t="shared" si="15"/>
         <v>3000</v>
       </c>
       <c r="Z41" s="21">
-        <f>Y41+100</f>
+        <f t="shared" si="15"/>
         <v>3100</v>
       </c>
       <c r="AA41" s="21">
-        <f>Z41+100</f>
+        <f t="shared" si="15"/>
         <v>3200</v>
       </c>
       <c r="AB41" s="21">
-        <f>AA41+100</f>
+        <f t="shared" si="15"/>
         <v>3300</v>
       </c>
     </row>
@@ -3853,11 +3853,11 @@
         <v>1.3363636363636364</v>
       </c>
       <c r="G45" s="45">
-        <f t="shared" ref="G45" si="11">SUM(G42:G44)</f>
+        <f t="shared" ref="G45" si="16">SUM(G42:G44)</f>
         <v>2940</v>
       </c>
       <c r="H45" s="45">
-        <f t="shared" ref="H45" si="12">SUM(H42:H44)</f>
+        <f t="shared" ref="H45" si="17">SUM(H42:H44)</f>
         <v>2260</v>
       </c>
       <c r="I45" s="45">
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="45">
-        <f t="shared" ref="J45" si="13">SUM(J42:J44)</f>
+        <f t="shared" ref="J45" si="18">SUM(J42:J44)</f>
         <v>680</v>
       </c>
     </row>
